--- a/Resource/excel/table/D-道具-公共配置-(后端定义,策划填写).xlsx
+++ b/Resource/excel/table/D-道具-公共配置-(后端定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -436,6 +436,26 @@
   </si>
   <si>
     <t>DestroyOrNot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务刷新道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_NAME_20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INFO_20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_ICON_20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"0"}]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -990,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1686,6 +1706,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20001</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>999</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
